--- a/clusterCenter.xlsx
+++ b/clusterCenter.xlsx
@@ -403,22 +403,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1090235101358333</v>
+        <v>0.659308190901512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1001099639105594</v>
+        <v>0.02428618043813522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05533024541367439</v>
+        <v>0.01803505278751199</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4527186983940888</v>
+        <v>0.4227373538103081</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7022195987975698</v>
+        <v>0.16645030303913</v>
       </c>
       <c r="G2" t="n">
-        <v>11397</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="3">
@@ -426,22 +426,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5900199807677913</v>
+        <v>0.1092805998881452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03078576565485109</v>
+        <v>0.1000471691453998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02145507383165537</v>
+        <v>0.05530289431230064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4365360730923514</v>
+        <v>0.4526922235626376</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6596953349402751</v>
+        <v>0.7021569933305578</v>
       </c>
       <c r="G3" t="n">
-        <v>4755</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="4">
@@ -449,22 +449,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1357687134097746</v>
+        <v>0.5909896029424542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06872236567928952</v>
+        <v>0.03063635361662465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04007000354327385</v>
+        <v>0.02138508024753218</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4297742938148466</v>
+        <v>0.4363977701450683</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1955419819086597</v>
+        <v>0.6607667564085613</v>
       </c>
       <c r="G4" t="n">
-        <v>17894</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="5">
@@ -472,22 +472,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6608196411293065</v>
+        <v>0.1352991835116438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02424931920870102</v>
+        <v>0.0688290259752148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01800353834988601</v>
+        <v>0.04011434005396648</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4225335634814891</v>
+        <v>0.4297593767190458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1660327714532226</v>
+        <v>0.195645966143937</v>
       </c>
       <c r="G5" t="n">
-        <v>7470</v>
+        <v>17880</v>
       </c>
     </row>
   </sheetData>
